--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P31_trail3 Features.xlsx
@@ -1731,7 +1731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,29 +1742,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1785,115 +1783,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1910,72 +1898,66 @@
         <v>1.486852012144386e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.613161343441849</v>
+        <v>9.853098881433842e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.35786662634038</v>
+        <v>2.298656886292633e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.853098881433842e-07</v>
+        <v>0.07235182081809594</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.298656886292633e-06</v>
+        <v>0.3519578845988832</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.07235182081809594</v>
+        <v>0.1288561246204836</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3519578845988832</v>
+        <v>1.910206064606649</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1288561246204836</v>
+        <v>4.035006725728685</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.933136772049955</v>
+        <v>7.702880462023453</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.035006725728685</v>
+        <v>2.583813087695062e-18</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.702880462023453</v>
+        <v>55760732034.91294</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.583813087695062e-18</v>
+        <v>2.140302169369679e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>55760732034.91294</v>
+        <v>8033.74470977659</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.140302169369679e-09</v>
+        <v>3.819369452284877e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8033.74470977659</v>
+        <v>5.421560830469566</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.819369452284877e-06</v>
+        <v>2.516854097291677</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5.421560830469566</v>
+        <v>0.0001122639555310756</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.516854097291677</v>
+        <v>8.611652729437992</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001122639555310756</v>
+        <v>0.960496583036492</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.611652729437992</v>
+        <v>0.8405325966945731</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.960496583036492</v>
+        <v>480</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8405325966945731</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>480</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>15.91222771769845</v>
       </c>
     </row>
@@ -1990,72 +1972,66 @@
         <v>1.2357606774554e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.5403187541533989</v>
+        <v>7.266765470511808e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.038830387409472</v>
+        <v>2.307107734871355e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.266765470511808e-07</v>
+        <v>0.05156215534529789</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.307107734871355e-06</v>
+        <v>0.3326505221847937</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.05156215534529789</v>
+        <v>0.1130985713281102</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3326505221847937</v>
+        <v>1.910257685084448</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1130985713281102</v>
+        <v>4.438010448877836</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.936641983979988</v>
+        <v>7.650171670917194</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.438010448877836</v>
+        <v>2.619540084586598e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.650171670917194</v>
+        <v>55512837842.22639</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.619540084586598e-18</v>
+        <v>2.153274646868059e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>55512837842.22639</v>
+        <v>8072.571623171368</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.153274646868059e-09</v>
+        <v>4.551488839692126e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8072.571623171368</v>
+        <v>5.980851050443329</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.551488839692126e-06</v>
+        <v>2.156371133822852</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>5.980851050443329</v>
+        <v>0.000162809392416784</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.156371133822852</v>
+        <v>8.473194924884131</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.000162809392416784</v>
+        <v>0.9607513762834179</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.473194924884131</v>
+        <v>0.8431386761494214</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9607513762834179</v>
+        <v>510</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8431386761494214</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>510</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>15.32720295112648</v>
       </c>
     </row>
@@ -2070,72 +2046,66 @@
         <v>1.119188561668956e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.09288419840872526</v>
+        <v>5.250231645518549e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9399097746877936</v>
+        <v>2.311687144740794e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.250231645518549e-07</v>
+        <v>0.02624230742261191</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.311687144740794e-06</v>
+        <v>0.2881965000906631</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.02624230742261191</v>
+        <v>0.08357672824051136</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2881965000906631</v>
+        <v>1.90761042040357</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08357672824051136</v>
+        <v>3.491176914116383</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.931061665899926</v>
+        <v>9.300123581872054</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.491176914116383</v>
+        <v>2.815610877696218e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9.300123581872054</v>
+        <v>53361833273.24111</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.815610877696218e-18</v>
+        <v>2.247074492555549e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>53361833273.24111</v>
+        <v>8017.410444771233</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.247074492555549e-09</v>
+        <v>4.353349513955623e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8017.410444771233</v>
+        <v>6.468076525236346</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.353349513955623e-06</v>
+        <v>1.9808455049737</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.468076525236346</v>
+        <v>0.000182126790935491</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.9808455049737</v>
+        <v>8.5497994660108</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.000182126790935491</v>
+        <v>0.9612774394923107</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.5497994660108</v>
+        <v>0.8295229041971227</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9612774394923107</v>
+        <v>505</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8295229041971227</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>15.50183080766212</v>
       </c>
     </row>
@@ -2150,72 +2120,66 @@
         <v>1.089636942280509e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2305258904308154</v>
+        <v>3.603044296247144e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.210672482145732</v>
+        <v>2.313163145129584e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.603044296247144e-07</v>
+        <v>0.001095432141347581</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.313163145129584e-06</v>
+        <v>0.2238896710376721</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.001095432141347581</v>
+        <v>0.05000444166734572</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2238896710376721</v>
+        <v>1.915926523565213</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05000444166734572</v>
+        <v>3.882237437743797</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.936131362928834</v>
+        <v>9.393355859564394</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.882237437743797</v>
+        <v>2.969527383072534e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>9.393355859564394</v>
+        <v>52130192896.58117</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.969527383072534e-18</v>
+        <v>2.301613033851027e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>52130192896.58117</v>
+        <v>8069.859960516285</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.301613033851027e-09</v>
+        <v>3.788034252748912e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8069.859960516285</v>
+        <v>6.874614200472729</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.788034252748912e-06</v>
+        <v>2.020257094563838</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.874614200472729</v>
+        <v>0.0001790237124913212</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.020257094563838</v>
+        <v>8.650643507518517</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001790237124913212</v>
+        <v>0.96155898444208</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.650643507518517</v>
+        <v>0.8309256096749978</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.96155898444208</v>
+        <v>504</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8309256096749978</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>504</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>15.81579476883801</v>
       </c>
     </row>
@@ -2230,72 +2194,66 @@
         <v>1.101718534765901e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2133170636068333</v>
+        <v>3.578615441765283e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.215483326210513</v>
+        <v>2.312076745386633e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.578615441765283e-07</v>
+        <v>-0.01977239028294322</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.312076745386633e-06</v>
+        <v>0.1548289220220721</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01977239028294322</v>
+        <v>0.02429189181670068</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1548289220220721</v>
+        <v>1.91537952672249</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02429189181670068</v>
+        <v>3.999620405365998</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.931714720844142</v>
+        <v>9.478009104227192</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.999620405365998</v>
+        <v>2.916719347303757e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>9.478009104227192</v>
+        <v>52320913411.35416</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.916719347303757e-18</v>
+        <v>2.301341812987895e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>52320913411.35416</v>
+        <v>7984.454987662742</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.301341812987895e-09</v>
+        <v>3.879365526817462e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7984.454987662742</v>
+        <v>6.900434690222484</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.879365526817462e-06</v>
+        <v>2.152166031099555</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.900434690222484</v>
+        <v>0.0001847198647120497</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>2.152166031099555</v>
+        <v>8.611824561213425</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001847198647120497</v>
+        <v>0.9606769338872576</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.611824561213425</v>
+        <v>0.8615836377276619</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9606769338872576</v>
+        <v>507</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8615836377276619</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>507</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>15.39016527702417</v>
       </c>
     </row>
@@ -2310,72 +2268,66 @@
         <v>1.122319019406332e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2251008635269287</v>
+        <v>3.619682939898331e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.234686446271643</v>
+        <v>2.309007713863581e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.619682939898331e-07</v>
+        <v>-0.03421913586943053</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.309007713863581e-06</v>
+        <v>0.1003226652388057</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03421913586943053</v>
+        <v>0.01120505639010115</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1003226652388057</v>
+        <v>1.918938703797144</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01120505639010115</v>
+        <v>4.014525291216391</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.936314279741515</v>
+        <v>9.414302976654817</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.014525291216391</v>
+        <v>2.956327502825828e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>9.414302976654817</v>
+        <v>52205720941.01732</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.956327502825828e-18</v>
+        <v>2.307259327933398e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>52205720941.01732</v>
+        <v>8057.285244176413</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.307259327933398e-09</v>
+        <v>4.226591145495311e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8057.285244176413</v>
+        <v>5.353493361562563</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.226591145495311e-06</v>
+        <v>2.518691497405422</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>5.353493361562563</v>
+        <v>0.0001211336422596789</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.518691497405422</v>
+        <v>8.520622934831145</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0001211336422596789</v>
+        <v>0.9617595242681608</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.520622934831145</v>
+        <v>0.8405956596447925</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9617595242681608</v>
+        <v>525</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8405956596447925</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>525</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>15.01124608286631</v>
       </c>
     </row>
@@ -2390,72 +2342,66 @@
         <v>1.136270563742695e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2662119099840755</v>
+        <v>3.660563389050513e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.21094423170333</v>
+        <v>2.304572354401147e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.660563389050513e-07</v>
+        <v>-0.04348647551348408</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.304572354401147e-06</v>
+        <v>0.06360055052854696</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.04348647551348408</v>
+        <v>0.00592461751008603</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.06360055052854696</v>
+        <v>1.926108043504977</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00592461751008603</v>
+        <v>3.791200117358543</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.940567834186654</v>
+        <v>9.412663011780026</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.791200117358543</v>
+        <v>2.9573577523128e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>9.412663011780026</v>
+        <v>52262435000.86115</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.9573577523128e-18</v>
+        <v>2.303647666273022e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>52262435000.86115</v>
+        <v>8077.614916945022</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.303647666273022e-09</v>
+        <v>4.619261743664207e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8077.614916945022</v>
+        <v>5.32560483169393</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4.619261743664207e-06</v>
+        <v>2.230184707811504</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>5.32560483169393</v>
+        <v>0.0001310118102484027</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.230184707811504</v>
+        <v>8.484674995681678</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001310118102484027</v>
+        <v>0.9609964262577962</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.484674995681678</v>
+        <v>0.8337682595220332</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9609964262577962</v>
+        <v>537</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8337682595220332</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>537</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>15.24256604944148</v>
       </c>
     </row>
@@ -2470,72 +2416,66 @@
         <v>1.140303734221218e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3101444245784337</v>
+        <v>3.701406899379329e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.15587982464274</v>
+        <v>2.299253703276959e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.701406899379329e-07</v>
+        <v>-0.04941385500869025</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.299253703276959e-06</v>
+        <v>0.04031975790193375</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04941385500869025</v>
+        <v>0.004063710774604735</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.04031975790193375</v>
+        <v>1.929792985072746</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.004063710774604735</v>
+        <v>3.785110349253454</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.943335660411806</v>
+        <v>9.510187534878892</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.785110349253454</v>
+        <v>2.897014863572945e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>9.510187534878892</v>
+        <v>52102819408.94599</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.897014863572945e-18</v>
+        <v>2.310977584403781e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>52102819408.94599</v>
+        <v>7864.537230874321</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.310977584403781e-09</v>
+        <v>4.377912402990325e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7864.537230874321</v>
+        <v>6.292915816589211</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>4.377912402990325e-06</v>
+        <v>1.96710133035536</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.292915816589211</v>
+        <v>0.0001733687874094044</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.96710133035536</v>
+        <v>8.574841976136378</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0001733687874094044</v>
+        <v>0.9597705471555876</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.574841976136378</v>
+        <v>0.8641031815812266</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9597705471555876</v>
+        <v>557</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.8641031815812266</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>557</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>16.15778778031227</v>
       </c>
     </row>
@@ -2550,72 +2490,66 @@
         <v>1.13559581034446e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3444933033849107</v>
+        <v>3.741877317364001e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.097541799858516</v>
+        <v>2.293389932604941e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.741877317364001e-07</v>
+        <v>-0.05328718618738516</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.293389932604941e-06</v>
+        <v>0.02637387270915317</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05328718618738516</v>
+        <v>0.003534337723413322</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.02637387270915317</v>
+        <v>1.927636721547235</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003534337723413322</v>
+        <v>3.198852996150519</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.939746520069318</v>
+        <v>9.620340227927654</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.198852996150519</v>
+        <v>2.831053149687575e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>9.620340227927654</v>
+        <v>52859700946.00652</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.831053149687575e-18</v>
+        <v>2.269512384035744e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>52859700946.00652</v>
+        <v>7910.381451083013</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.269512384035744e-09</v>
+        <v>3.540459159289032e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7910.381451083013</v>
+        <v>6.232170991649617</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.540459159289032e-06</v>
+        <v>1.851820108695849</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.232170991649617</v>
+        <v>0.0001375112753790702</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.851820108695849</v>
+        <v>8.725065547242815</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0001375112753790702</v>
+        <v>0.9594025847986499</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.725065547242815</v>
+        <v>0.8574042348333044</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9594025847986499</v>
+        <v>571</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.8574042348333044</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>17.47179601523927</v>
       </c>
     </row>
@@ -2630,72 +2564,66 @@
         <v>1.124366490813479e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.366605904993017</v>
+        <v>3.781662368606083e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.051566773955473</v>
+        <v>2.287212233865626e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.781662368606083e-07</v>
+        <v>-0.05580692317075382</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.287212233865626e-06</v>
+        <v>0.01962002461743117</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05580692317075382</v>
+        <v>0.00349956460326097</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.01962002461743117</v>
+        <v>1.924773399121443</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.00349956460326097</v>
+        <v>3.858446871340867</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.940395118486309</v>
+        <v>9.695829016062602</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.858446871340867</v>
+        <v>2.787141315102324e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>9.695829016062602</v>
+        <v>53199784310.49879</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.787141315102324e-18</v>
+        <v>2.252661870916123e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>53199784310.49879</v>
+        <v>7888.214872667292</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.252661870916123e-09</v>
+        <v>3.189358354795266e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7888.214872667292</v>
+        <v>7.37416184509032</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3.189358354795266e-06</v>
+        <v>1.858707304543119</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.37416184509032</v>
+        <v>0.0001734317671554561</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.858707304543119</v>
+        <v>8.832743370535397</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0001734317671554561</v>
+        <v>0.9609679230977805</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.832743370535397</v>
+        <v>0.8114913287945797</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9609679230977805</v>
+        <v>582</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8114913287945797</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>582</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>18.93117551629654</v>
       </c>
     </row>
@@ -2710,72 +2638,66 @@
         <v>1.10883999779263e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3780837767988223</v>
+        <v>3.818220767663936e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.022026804281074</v>
+        <v>2.280883539972303e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.818220767663936e-07</v>
+        <v>-0.0573863685715426</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.280883539972303e-06</v>
+        <v>0.01783208571793973</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0573863685715426</v>
+        <v>0.003611514521514837</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.01783208571793973</v>
+        <v>1.924448291285865</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003611514521514837</v>
+        <v>3.571621877555559</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.940173233083204</v>
+        <v>9.89986046845199</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.571621877555559</v>
+        <v>2.673441826319992e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.89986046845199</v>
+        <v>55411762060.86552</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.673441826319992e-18</v>
+        <v>2.1605384459015e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>55411762060.86552</v>
+        <v>8208.705212079816</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.1605384459015e-09</v>
+        <v>2.807685297709071e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>8208.705212079816</v>
+        <v>8.024881966746317</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.807685297709071e-06</v>
+        <v>1.84915091450138</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.024881966746317</v>
+        <v>0.0001808113690411839</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.84915091450138</v>
+        <v>8.923195040740302</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0001808113690411839</v>
+        <v>0.9615864575149069</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.923195040740302</v>
+        <v>0.8344643020708483</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9615864575149069</v>
+        <v>596</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.8344643020708483</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>596</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>20.24387373790899</v>
       </c>
     </row>
@@ -2790,72 +2712,66 @@
         <v>1.090827369469701e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3818067225769838</v>
+        <v>3.817061723975198e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.006807957208099</v>
+        <v>2.274514717030513e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.817061723975198e-07</v>
+        <v>-0.05831879366561352</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.274514717030513e-06</v>
+        <v>0.01808588036204982</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05831879366561352</v>
+        <v>0.003728352458092263</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01808588036204982</v>
+        <v>1.921962640663932</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003728352458092263</v>
+        <v>3.428709710091435</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.946547500125065</v>
+        <v>10.51114186530781</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.428709710091435</v>
+        <v>2.371532551833566e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>10.51114186530781</v>
+        <v>62184914605.13125</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.371532551833566e-18</v>
+        <v>1.923763848611766e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>62184914605.13125</v>
+        <v>9170.630064702824</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.923763848611766e-09</v>
+        <v>2.355175237560886e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>9170.630064702824</v>
+        <v>7.313014947303246</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.355175237560886e-06</v>
+        <v>1.922353823664211</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.313014947303246</v>
+        <v>0.0001259552135815113</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.922353823664211</v>
+        <v>9.019893536727519</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0001259552135815113</v>
+        <v>0.9609176509292514</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>9.019893536727519</v>
+        <v>0.7402916125422291</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9609176509292514</v>
+        <v>626</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7402916125422291</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>626</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>20.70865309668699</v>
       </c>
     </row>
@@ -2870,72 +2786,66 @@
         <v>1.071671106641254e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3807123813292175</v>
+        <v>3.780593000877446e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.001426339346722</v>
+        <v>2.268179746662111e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.780593000877446e-07</v>
+        <v>-0.05879557804841639</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.268179746662111e-06</v>
+        <v>0.01862293490517876</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05879557804841639</v>
+        <v>0.003803707763258483</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01862293490517876</v>
+        <v>1.921765383339241</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003803707763258483</v>
+        <v>3.355133019883673</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.945457381993545</v>
+        <v>10.56860324049905</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.355133019883673</v>
+        <v>2.345814665506973e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>10.56860324049905</v>
+        <v>62662006585.47977</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.345814665506973e-18</v>
+        <v>1.908740996845137e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>62662006585.47977</v>
+        <v>9210.904783717948</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.908740996845137e-09</v>
+        <v>2.018999107450899e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>9210.904783717948</v>
+        <v>6.603545956445247</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.018999107450899e-06</v>
+        <v>1.94629056322197</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.603545956445247</v>
+        <v>8.804212904132029e-05</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.94629056322197</v>
+        <v>9.083049743434941</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>8.804212904132029e-05</v>
+        <v>0.9609998522565939</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>9.083049743434941</v>
+        <v>0.6948747942690301</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9609998522565939</v>
+        <v>613</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6948747942690301</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>20.73274949032871</v>
       </c>
     </row>
@@ -2950,72 +2860,66 @@
         <v>1.052209164273118e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3770256725710948</v>
+        <v>3.725914616662074e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.001844581199393</v>
+        <v>2.261922544860175e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.725914616662074e-07</v>
+        <v>-0.05901780779781313</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.261922544860175e-06</v>
+        <v>0.01893403945685204</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05901780779781313</v>
+        <v>0.003841434559801665</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.01893403945685204</v>
+        <v>1.926759907045155</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003841434559801665</v>
+        <v>3.933590877382875</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.949042685543743</v>
+        <v>10.69284751959274</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.933590877382875</v>
+        <v>2.29161754102692e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>10.69284751959274</v>
+        <v>64648942417.35532</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.29161754102692e-18</v>
+        <v>1.855036546042271e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>64648942417.35532</v>
+        <v>9577.782870194225</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.855036546042271e-09</v>
+        <v>1.799965277712832e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>9577.782870194225</v>
+        <v>6.118962703946267</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>1.799965277712832e-06</v>
+        <v>1.955351257113816</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.118962703946267</v>
+        <v>6.739376816849554e-05</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.955351257113816</v>
+        <v>9.090691219382263</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>6.739376816849554e-05</v>
+        <v>0.9623554325945082</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>9.090691219382263</v>
+        <v>0.7214247447531916</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9623554325945082</v>
+        <v>647</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7214247447531916</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>647</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>21.0226146537042</v>
       </c>
     </row>
@@ -3030,72 +2934,66 @@
         <v>1.032910331922266e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3720776758961312</v>
+        <v>3.663032965026009e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.0053891142092</v>
+        <v>2.25576470286388e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.663032965026009e-07</v>
+        <v>-0.05910625690349263</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.25576470286388e-06</v>
+        <v>0.01898446905896837</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.05910625690349263</v>
+        <v>0.003853725278228051</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.01898446905896837</v>
+        <v>1.928592690541201</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003853725278228051</v>
+        <v>3.866837402340573</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.95168040151145</v>
+        <v>10.63363631984315</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.866837402340573</v>
+        <v>2.317209389214095e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10.63363631984315</v>
+        <v>64694710045.50279</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.317209389214095e-18</v>
+        <v>1.859684075390538e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>64694710045.50279</v>
+        <v>9698.460940508647</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.859684075390538e-09</v>
+        <v>2.066060267074632e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>9698.460940508647</v>
+        <v>6.128611649755888</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>2.066060267074632e-06</v>
+        <v>2.136863713033906</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.128611649755888</v>
+        <v>7.760097726091625e-05</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.136863713033906</v>
+        <v>9.084148948467201</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>7.760097726091625e-05</v>
+        <v>0.9626848752256589</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>9.084148948467201</v>
+        <v>0.7136597732902628</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9626848752256589</v>
+        <v>653</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7136597732902628</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>21.23848266356674</v>
       </c>
     </row>
@@ -3110,72 +3008,66 @@
         <v>1.013985525394634e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3664146627943536</v>
+        <v>3.599733931669848e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.010846625325774</v>
+        <v>2.249712538340514e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.599733931669848e-07</v>
+        <v>-0.05916875578752251</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.249712538340514e-06</v>
+        <v>0.01897596616836625</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.05916875578752251</v>
+        <v>0.003860818954457721</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.01897596616836625</v>
+        <v>1.929897859854571</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003860818954457721</v>
+        <v>3.851597363153995</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.951797169587438</v>
+        <v>9.739428791721981</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.851597363153995</v>
+        <v>2.934366274386342e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>9.739428791721981</v>
+        <v>51625943011.44971</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.934366274386342e-18</v>
+        <v>2.330072263963123e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>51625943011.44971</v>
+        <v>7820.784476414053</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.330072263963123e-09</v>
+        <v>2.456806460660724e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>7820.784476414053</v>
+        <v>6.09572068477225</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.456806460660724e-06</v>
+        <v>2.119519765026814</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>6.09572068477225</v>
+        <v>9.128954931010463e-05</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.119519765026814</v>
+        <v>9.028578572041713</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>9.128954931010463e-05</v>
+        <v>0.9636634127674818</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>9.028578572041713</v>
+        <v>0.7797790685316818</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9636634127674818</v>
+        <v>636</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.7797790685316818</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>636</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>21.50536042988653</v>
       </c>
     </row>
@@ -3190,72 +3082,66 @@
         <v>9.953538246340376e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3600034684809036</v>
+        <v>3.536777599712973e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.018910192562059</v>
+        <v>2.243765235516196e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.536777599712973e-07</v>
+        <v>-0.05922181634168274</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.243765235516196e-06</v>
+        <v>0.01913188217978237</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.05922181634168274</v>
+        <v>0.003873070144769975</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.01913188217978237</v>
+        <v>1.932842929193893</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.003873070144769975</v>
+        <v>3.811092559344811</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.952669960777813</v>
+        <v>8.498397949836352</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.811092559344811</v>
+        <v>3.853959695039262e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.498397949836352</v>
+        <v>39179800778.74723</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.853959695039262e-18</v>
+        <v>3.06885848024776e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>39179800778.74723</v>
+        <v>5916.046994642576</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.06885848024776e-09</v>
+        <v>3.207846616677404e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>5916.046994642576</v>
+        <v>6.324079323439301</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.207846616677404e-06</v>
+        <v>2.287668484570995</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>6.324079323439301</v>
+        <v>0.000128294551150174</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>2.287668484570995</v>
+        <v>8.962056393670085</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.000128294551150174</v>
+        <v>0.9634704883127115</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.962056393670085</v>
+        <v>0.8565733968573092</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9634704883127115</v>
+        <v>588</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8565733968573092</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>588</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>20.14757760649163</v>
       </c>
     </row>
@@ -3270,72 +3156,66 @@
         <v>9.769061861984492e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.35304367462862</v>
+        <v>3.467446572840149e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.030294625059131</v>
+        <v>2.237927023716075e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.467446572840149e-07</v>
+        <v>-0.05915748042785708</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.237927023716075e-06</v>
+        <v>0.01928520429251867</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.05915748042785708</v>
+        <v>0.003871273614676446</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.01928520429251867</v>
+        <v>1.927765040291636</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.003871273614676446</v>
+        <v>3.803108718260643</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.95353286973878</v>
+        <v>6.941340757466326</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.803108718260643</v>
+        <v>4.448617439177233e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>6.941340757466326</v>
+        <v>32372047848.08038</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.448617439177233e-18</v>
+        <v>3.694174886418587e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>32372047848.08038</v>
+        <v>4661.926340461021</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.694174886418587e-09</v>
+        <v>1.094907367673098e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>4661.926340461021</v>
+        <v>7.378277628670865</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>1.094907367673098e-05</v>
+        <v>2.131722779245261</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.378277628670865</v>
+        <v>0.0005960564112902825</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>2.131722779245261</v>
+        <v>8.306833852862736</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0005960564112902825</v>
+        <v>0.9627594264790623</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.306833852862736</v>
+        <v>0.8378076806672659</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9627594264790623</v>
+        <v>543</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.8378076806672659</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>15.50298413166771</v>
       </c>
     </row>
@@ -3350,72 +3230,66 @@
         <v>9.58745834769106e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3465176969864555</v>
+        <v>3.391316930012421e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.04368085170428</v>
+        <v>2.232210882855243e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.391316930012421e-07</v>
+        <v>-0.05895483119706098</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.232210882855243e-06</v>
+        <v>0.01929584994373233</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05895483119706098</v>
+        <v>0.003847690945561669</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.01929584994373233</v>
+        <v>1.922193343500207</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.003847690945561669</v>
+        <v>4.329167837872957</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.950961903631148</v>
+        <v>6.430612969634156</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>4.329167837872957</v>
+        <v>4.293546014227835e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.430612969634156</v>
+        <v>32318087367.42036</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.293546014227835e-18</v>
+        <v>3.697485762688395e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>32318087367.42036</v>
+        <v>4484.431793631111</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.697485762688395e-09</v>
+        <v>2.119934893748457e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>4484.431793631111</v>
+        <v>7.849136051061803</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>2.119934893748457e-05</v>
+        <v>1.162752517152987</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.849136051061803</v>
+        <v>0.001306069347789923</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.162752517152987</v>
+        <v>7.498616903382969</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.001306069347789923</v>
+        <v>0.9626042018832619</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>7.498616903382969</v>
+        <v>0.8086831766088828</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9626042018832619</v>
+        <v>514</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8086831766088828</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>514</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>12.08955835895463</v>
       </c>
     </row>
@@ -3430,72 +3304,66 @@
         <v>9.410012192357314e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3412539002735828</v>
+        <v>3.311430700915692e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.057427538681124</v>
+        <v>2.226624661774453e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.311430700915692e-07</v>
+        <v>-0.05865181114542967</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.226624661774453e-06</v>
+        <v>0.01915959543022035</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.05865181114542967</v>
+        <v>0.003806757188155983</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.01915959543022035</v>
+        <v>1.916551178324799</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.003806757188155983</v>
+        <v>4.170293085971311</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.946980431275745</v>
+        <v>6.378472792363203</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>4.170293085971311</v>
+        <v>4.364027222996813e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.378472792363203</v>
+        <v>31862087694.49203</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.364027222996813e-18</v>
+        <v>3.740554158540923e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>31862087694.49203</v>
+        <v>4430.328283731339</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.740554158540923e-09</v>
+        <v>3.485211752765509e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>4430.328283731339</v>
+        <v>8.421253130328136</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>3.485211752765509e-05</v>
+        <v>1.253232144813563</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.421253130328136</v>
+        <v>0.002471625194110945</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.253232144813563</v>
+        <v>6.812182863680525</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.002471625194110945</v>
+        <v>0.9630631377886377</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.812182863680525</v>
+        <v>0.8370584043663013</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9630631377886377</v>
+        <v>480</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8370584043663013</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>480</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>9.604920700671357</v>
       </c>
     </row>
@@ -3510,72 +3378,66 @@
         <v>9.23760549993105e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3380800737756949</v>
+        <v>3.227677761915253e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.069805075678898</v>
+        <v>2.221175029480601e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.227677761915253e-07</v>
+        <v>-0.05823526639005739</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.221175029480601e-06</v>
+        <v>0.01894351497456835</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.05823526639005739</v>
+        <v>0.003749820964617859</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.01894351497456835</v>
+        <v>1.911096017664963</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.003749820964617859</v>
+        <v>4.158741957961911</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.937396747929091</v>
+        <v>6.226685630421256</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.158741957961911</v>
+        <v>4.579383195412458e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.226685630421256</v>
+        <v>29966633891.8112</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.579383195412458e-18</v>
+        <v>3.972584678887177e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>29966633891.8112</v>
+        <v>4112.282202377424</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.972584678887177e-09</v>
+        <v>4.027572179881144e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>4112.282202377424</v>
+        <v>8.486848673022552</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>4.027572179881144e-05</v>
+        <v>1.330505116664451</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.486848673022552</v>
+        <v>0.002900923319775611</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.330505116664451</v>
+        <v>6.567380640246524</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002900923319775611</v>
+        <v>0.9627489466472408</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>6.567380640246524</v>
+        <v>0.8463669929593406</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9627489466472408</v>
+        <v>424</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8463669929593406</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>424</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>8.743226605587285</v>
       </c>
     </row>
@@ -3590,72 +3452,66 @@
         <v>9.070000834148657e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.3376472590916515</v>
+        <v>3.142178384592579e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.079600076973516</v>
+        <v>2.215866622564019e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.142178384592579e-07</v>
+        <v>-0.05773981115153009</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.215866622564019e-06</v>
+        <v>0.01886789802109206</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.05773981115153009</v>
+        <v>0.003689540741141634</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.01886789802109206</v>
+        <v>1.906169048218793</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.003689540741141634</v>
+        <v>3.787716455517544</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.932585465332608</v>
+        <v>5.864739165732379</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.787716455517544</v>
+        <v>5.430749799239516e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.864739165732379</v>
+        <v>25263458917.89667</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.430749799239516e-18</v>
+        <v>4.712430986791193e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>25263458917.89667</v>
+        <v>3466.13454940818</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.712430986791193e-09</v>
+        <v>3.271785997211995e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3466.13454940818</v>
+        <v>8.477881876638968</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>3.271785997211995e-05</v>
+        <v>1.520063745238137</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.477881876638968</v>
+        <v>0.002351579208664598</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.520063745238137</v>
+        <v>6.936164338204509</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.002351579208664598</v>
+        <v>0.9627835907731631</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.936164338204509</v>
+        <v>0.8654293048335736</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9627835907731631</v>
+        <v>365</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8654293048335736</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>365</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>9.823121522623444</v>
       </c>
     </row>
@@ -3670,72 +3526,66 @@
         <v>8.905478862761201e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3403224768059545</v>
+        <v>3.054279376978167e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.086516466011191</v>
+        <v>2.210702356603497e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.054279376978167e-07</v>
+        <v>-0.05716078270756648</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.210702356603497e-06</v>
+        <v>0.01917942406704113</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05716078270756648</v>
+        <v>0.003634905307314252</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.01917942406704113</v>
+        <v>1.901869072288168</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.003634905307314252</v>
+        <v>3.248970591344374</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.93085502838477</v>
+        <v>5.701043713838626</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.248970591344374</v>
+        <v>7.470065777638484e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.701043713838626</v>
+        <v>18291737916.63792</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.470065777638484e-18</v>
+        <v>6.504110654470756e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>18291737916.63792</v>
+        <v>2499.391948189134</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.504110654470756e-09</v>
+        <v>2.769313311365057e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2499.391948189134</v>
+        <v>8.449039078256245</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>2.769313311365057e-05</v>
+        <v>1.738257587926256</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.449039078256245</v>
+        <v>0.001976909237937889</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.738257587926256</v>
+        <v>7.230782308963514</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.001976909237937889</v>
+        <v>0.9627848336576901</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>7.230782308963514</v>
+        <v>0.8582374874866986</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9627848336576901</v>
+        <v>317</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8582374874866986</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>317</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>10.43013054211059</v>
       </c>
     </row>
@@ -4112,7 +3962,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.67981260600525</v>
+        <v>1.597931099564203</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.129135257920985</v>
@@ -4201,7 +4051,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.687215636647352</v>
+        <v>1.608549387975793</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.00644885725648</v>
@@ -4290,7 +4140,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.698451652258393</v>
+        <v>1.616912703618105</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.83970156391379</v>
@@ -4379,7 +4229,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693428943921787</v>
+        <v>1.608373068880166</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.724482716704768</v>
@@ -4468,7 +4318,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.659684085087195</v>
+        <v>1.587048813969292</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.596267672524611</v>
@@ -4557,7 +4407,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.64388256803704</v>
+        <v>1.571492741060407</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.730489913960788</v>
@@ -4646,7 +4496,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.625332915419521</v>
+        <v>1.557596770340799</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.814000252279764</v>
@@ -4735,7 +4585,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.607215683282686</v>
+        <v>1.543166990227297</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.7774178564069</v>
@@ -4824,7 +4674,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593072595738908</v>
+        <v>1.52920287332833</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.900834823288113</v>
@@ -4913,7 +4763,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.577774730554617</v>
+        <v>1.512893669563972</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.852227980382292</v>
@@ -5002,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.57461711970185</v>
+        <v>1.512622494194872</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.914679988998271</v>
@@ -5091,7 +4941,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.554218767052089</v>
+        <v>1.501281061787536</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.843938864820278</v>
@@ -5180,7 +5030,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560573614974729</v>
+        <v>1.510106511134435</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.009649284545536</v>
@@ -5269,7 +5119,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.557456359310819</v>
+        <v>1.509016791250826</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.895960658601744</v>
@@ -5358,7 +5208,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.559219272431992</v>
+        <v>1.512226114579281</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.870713011471677</v>
@@ -5447,7 +5297,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.540719392339633</v>
+        <v>1.503241088343927</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.080990601614386</v>
@@ -5536,7 +5386,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.527674634907228</v>
+        <v>1.488400561739629</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.76380047867178</v>
@@ -5625,7 +5475,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.527731248844952</v>
+        <v>1.487510979372706</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.921794169367038</v>
@@ -5714,7 +5564,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539318208524413</v>
+        <v>1.502474254334971</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.749075120513244</v>
@@ -5803,7 +5653,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.543741940214069</v>
+        <v>1.510458606012093</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.324968192275239</v>
@@ -5892,7 +5742,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.552065038412375</v>
+        <v>1.51463498259456</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.305847821767864</v>
@@ -5981,7 +5831,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.569957092056532</v>
+        <v>1.522553162788425</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.867025649727118</v>
@@ -6070,7 +5920,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591516214233237</v>
+        <v>1.536225488433904</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.967436143823482</v>
@@ -6159,7 +6009,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.53499649790876</v>
+        <v>1.495905269568075</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.173810990319296</v>
@@ -6248,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540086258928202</v>
+        <v>1.500362477172901</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.114937100140775</v>
@@ -6337,7 +6187,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.538034976231888</v>
+        <v>1.497903243761351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.100325850353502</v>
@@ -6426,7 +6276,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539656942763506</v>
+        <v>1.494021262563545</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.122536268051765</v>
@@ -6515,7 +6365,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.521277232352966</v>
+        <v>1.477281489629422</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.161910302582965</v>
@@ -6604,7 +6454,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.512259587975489</v>
+        <v>1.47022307080876</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.144024172724975</v>
@@ -6693,7 +6543,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.509630861109118</v>
+        <v>1.466562426991026</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.151293469856169</v>
@@ -6782,7 +6632,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.512696001125508</v>
+        <v>1.465105068796409</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.095388740633313</v>
@@ -6871,7 +6721,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.51992525861717</v>
+        <v>1.471477714930947</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.087173567024461</v>
@@ -6960,7 +6810,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.522244413082908</v>
+        <v>1.477385041182287</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.092417543623004</v>
@@ -7049,7 +6899,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.522535182226961</v>
+        <v>1.454448755528639</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.181580273731198</v>
@@ -7138,7 +6988,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521409730054581</v>
+        <v>1.449582216582527</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.143919354911681</v>
@@ -7227,7 +7077,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.53056493549082</v>
+        <v>1.454851387824986</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.220961966618793</v>
@@ -7316,7 +7166,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.516426810888246</v>
+        <v>1.445854844506217</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.23248061408087</v>
@@ -7405,7 +7255,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.512703225053209</v>
+        <v>1.450122937640491</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.166963122525848</v>
@@ -7494,7 +7344,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.564406159873361</v>
+        <v>1.48673635161202</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.32896516372729</v>
@@ -7583,7 +7433,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.569659718041917</v>
+        <v>1.487158887966773</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.044267118533042</v>
@@ -7672,7 +7522,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572972536568439</v>
+        <v>1.491734814296608</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.427396664003536</v>
@@ -7761,7 +7611,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583473867257729</v>
+        <v>1.501734936951529</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.462933031416172</v>
@@ -7850,7 +7700,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594263921834219</v>
+        <v>1.51011084403556</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.365425710973018</v>
@@ -7939,7 +7789,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.591500850246413</v>
+        <v>1.503637631279287</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.079591801391153</v>
@@ -8028,7 +7878,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.596579173403599</v>
+        <v>1.51159798105927</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.676633708066131</v>
@@ -8117,7 +7967,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.61253988658441</v>
+        <v>1.522609060380858</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.126144577323056</v>
@@ -8206,7 +8056,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.625214525370638</v>
+        <v>1.530639092243926</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.215387302891779</v>
@@ -8295,7 +8145,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622038666409944</v>
+        <v>1.529013571651929</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.138658462993538</v>
@@ -8384,7 +8234,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629887713088991</v>
+        <v>1.556209281171146</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.894512758776051</v>
@@ -8473,7 +8323,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.636463908657124</v>
+        <v>1.568569544176075</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.050293361556188</v>
@@ -8562,7 +8412,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629362256591361</v>
+        <v>1.564489368207464</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.751918275254192</v>
@@ -8651,7 +8501,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.643071469204003</v>
+        <v>1.58077870811838</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.80726915234819</v>
@@ -8740,7 +8590,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.617447571133479</v>
+        <v>1.558612670942164</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.312339309934277</v>
@@ -8829,7 +8679,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.607246731945186</v>
+        <v>1.552726858393203</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.113595768230287</v>
@@ -8918,7 +8768,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.610235831853554</v>
+        <v>1.55494005024538</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.868858798743684</v>
@@ -9007,7 +8857,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.613336647373808</v>
+        <v>1.55623420649103</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.906763664624543</v>
@@ -9096,7 +8946,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.610620218501606</v>
+        <v>1.551141796501507</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.139322925668499</v>
@@ -9185,7 +9035,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.624547187071514</v>
+        <v>1.561845563049225</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.767137658746277</v>
@@ -9274,7 +9124,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.64094612215598</v>
+        <v>1.575183193612968</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.959631195427005</v>
@@ -9363,7 +9213,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.641859329487322</v>
+        <v>1.574711168921441</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.974082073919643</v>
@@ -9452,7 +9302,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.629919779317215</v>
+        <v>1.560372839384251</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.083707341865952</v>
@@ -9541,7 +9391,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.615944483053422</v>
+        <v>1.544140028739856</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.973539162288338</v>
@@ -9630,7 +9480,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.611666557019278</v>
+        <v>1.54064058699321</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.119930634058797</v>
@@ -9719,7 +9569,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.593253645193942</v>
+        <v>1.521872855159058</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.941277521899516</v>
@@ -9808,7 +9658,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.592140543560659</v>
+        <v>1.523625633415238</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.135510735110461</v>
@@ -9897,7 +9747,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.60680794057022</v>
+        <v>1.537883934850476</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.811081997200101</v>
@@ -9986,7 +9836,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.620391675847347</v>
+        <v>1.544848614842151</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.899818275453262</v>
@@ -10075,7 +9925,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.635256478585591</v>
+        <v>1.558085059710965</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.215790541110128</v>
@@ -10361,7 +10211,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.662307188037292</v>
+        <v>1.645532558661712</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.709552826797555</v>
@@ -10450,7 +10300,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.674628798029214</v>
+        <v>1.655941992100488</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.745182754004839</v>
@@ -10539,7 +10389,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.698616437529566</v>
+        <v>1.676154861649999</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.714267615862061</v>
@@ -10628,7 +10478,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.722318602017928</v>
+        <v>1.698445533100608</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.625485226184902</v>
@@ -10717,7 +10567,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.716321589414826</v>
+        <v>1.696151494561097</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.593670688808462</v>
@@ -10806,7 +10656,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.712867674690222</v>
+        <v>1.688443831010915</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.821025523373149</v>
@@ -10895,7 +10745,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.726268220112293</v>
+        <v>1.697210073639119</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.40742191669687</v>
@@ -10984,7 +10834,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.727310247690912</v>
+        <v>1.694036471858017</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.334403352100555</v>
@@ -11073,7 +10923,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.703295462176196</v>
+        <v>1.672208776410169</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.557269223229864</v>
@@ -11162,7 +11012,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.69666733085055</v>
+        <v>1.665179721391537</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.332797413752138</v>
@@ -11251,7 +11101,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.700577960045446</v>
+        <v>1.666292292838102</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.473448300164776</v>
@@ -11340,7 +11190,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695769584268752</v>
+        <v>1.665260005406423</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.554991527606786</v>
@@ -11429,7 +11279,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.693378603173504</v>
+        <v>1.662069858061147</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.434459674538468</v>
@@ -11518,7 +11368,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.679601340488822</v>
+        <v>1.650678632282529</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.731639592950283</v>
@@ -11607,7 +11457,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.683749568970436</v>
+        <v>1.65557120568134</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.33894168115061</v>
@@ -11696,7 +11546,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.668815544075853</v>
+        <v>1.645843092742918</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.297496516336504</v>
@@ -11785,7 +11635,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.651833313675581</v>
+        <v>1.63099906587168</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.083404737748127</v>
@@ -11874,7 +11724,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.647386450962033</v>
+        <v>1.626264098459928</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.510144609018414</v>
@@ -11963,7 +11813,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.641989512697177</v>
+        <v>1.621060833939233</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.979196166690974</v>
@@ -12052,7 +11902,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.636226307192123</v>
+        <v>1.614582186156511</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.413314922049162</v>
@@ -12141,7 +11991,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.638503431527926</v>
+        <v>1.613199832452301</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.092778121171115</v>
@@ -12230,7 +12080,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.644442077193877</v>
+        <v>1.611382112940943</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.294824653865471</v>
@@ -12319,7 +12169,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.664588970405857</v>
+        <v>1.626702801505175</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.229612041267433</v>
@@ -12408,7 +12258,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.613241422543191</v>
+        <v>1.588909138930339</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.277293752393863</v>
@@ -12497,7 +12347,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620046057127701</v>
+        <v>1.594303685907575</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.250320973084962</v>
@@ -12586,7 +12436,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.611558857975614</v>
+        <v>1.586965472612762</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.268393368716735</v>
@@ -12675,7 +12525,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.608394625387327</v>
+        <v>1.577878534469081</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.221168386915701</v>
@@ -12764,7 +12614,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.598706606788564</v>
+        <v>1.571835762819295</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.231027593430498</v>
@@ -12853,7 +12703,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.603769870901529</v>
+        <v>1.577124600965809</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.231107990739079</v>
@@ -12942,7 +12792,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.59398710129763</v>
+        <v>1.571176904730692</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.245334652326155</v>
@@ -13031,7 +12881,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.596110792179839</v>
+        <v>1.564880012193869</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.127629564683373</v>
@@ -13120,7 +12970,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594290984454024</v>
+        <v>1.568704928536149</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.151102433058389</v>
@@ -13209,7 +13059,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.596742223453323</v>
+        <v>1.575501643689597</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.178103690820282</v>
@@ -13298,7 +13148,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.600715599705341</v>
+        <v>1.56292620626325</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.28668554122487</v>
@@ -13387,7 +13237,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596833709276082</v>
+        <v>1.555458978199077</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.28131810592695</v>
@@ -13476,7 +13326,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59721817296325</v>
+        <v>1.552560427704239</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.263978562692753</v>
@@ -13565,7 +13415,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585685932890615</v>
+        <v>1.542035824057889</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.2874729662986</v>
@@ -13654,7 +13504,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.586577044865488</v>
+        <v>1.546909302757789</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.235344846433533</v>
@@ -13743,7 +13593,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639662567399795</v>
+        <v>1.590322993740177</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.250551563894124</v>
@@ -13832,7 +13682,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.64749453579207</v>
+        <v>1.596243230128064</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.53897517416886</v>
@@ -13921,7 +13771,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65404334566724</v>
+        <v>1.60289737615587</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.396482821697613</v>
@@ -14010,7 +13860,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659261449201009</v>
+        <v>1.611342197682869</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.377607627300909</v>
@@ -14099,7 +13949,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.663881957854136</v>
+        <v>1.615385616533933</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.174804861557116</v>
@@ -14188,7 +14038,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.658176765000942</v>
+        <v>1.60602109051487</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.532431148196566</v>
@@ -14277,7 +14127,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.66842804552206</v>
+        <v>1.61470159714132</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.944121949250722</v>
@@ -14366,7 +14216,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.684661421739305</v>
+        <v>1.630396596492354</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.196572426727717</v>
@@ -14455,7 +14305,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.712238299268225</v>
+        <v>1.647069051531602</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.893434610717652</v>
@@ -14544,7 +14394,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.715816048671607</v>
+        <v>1.645333024865604</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.32867284590094</v>
@@ -14633,7 +14483,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.722772610190292</v>
+        <v>1.665091153054636</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.778052080884803</v>
@@ -14722,7 +14572,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.735255359490078</v>
+        <v>1.685820424018559</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.692218170440578</v>
@@ -14811,7 +14661,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.739526524951802</v>
+        <v>1.698842422569009</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.304326626105479</v>
@@ -14900,7 +14750,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.767890638530765</v>
+        <v>1.727554755417337</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.005858299378731</v>
@@ -14989,7 +14839,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.759189089193173</v>
+        <v>1.721619479930867</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.240097899281246</v>
@@ -15078,7 +14928,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.757413022599613</v>
+        <v>1.719294000298089</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.399746105776277</v>
@@ -15167,7 +15017,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.753069659804959</v>
+        <v>1.717308667963496</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.267562848928053</v>
@@ -15256,7 +15106,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.757567171630483</v>
+        <v>1.717996474006718</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.7341888676727</v>
@@ -15345,7 +15195,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.76470110623276</v>
+        <v>1.722078187898977</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.427715904176795</v>
@@ -15434,7 +15284,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.77997574123321</v>
+        <v>1.736509127690896</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.205827570082556</v>
@@ -15523,7 +15373,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.789335457617774</v>
+        <v>1.749848014159068</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.579120676710619</v>
@@ -15612,7 +15462,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.759911429524314</v>
+        <v>1.729921727282732</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.657958729498476</v>
@@ -15701,7 +15551,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.753647763266408</v>
+        <v>1.717445662539743</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.208495450592598</v>
@@ -15790,7 +15640,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.736741471930034</v>
+        <v>1.703584702971005</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.360546729532586</v>
@@ -15879,7 +15729,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.733715251348324</v>
+        <v>1.703010640433825</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.424658489026147</v>
@@ -15968,7 +15818,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.723066967291652</v>
+        <v>1.695924066131725</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.329789297085889</v>
@@ -16057,7 +15907,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.723384938053342</v>
+        <v>1.694927452069344</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.669118246880506</v>
@@ -16146,7 +15996,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.733989932144753</v>
+        <v>1.702480565836209</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.398625932902521</v>
@@ -16235,7 +16085,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.732012607840152</v>
+        <v>1.6967786760211</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.289052306677218</v>
@@ -16324,7 +16174,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.740293636142429</v>
+        <v>1.709337396850153</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.589215095781038</v>
@@ -16610,7 +16460,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.744165016388996</v>
+        <v>1.687987086519946</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.282133003541473</v>
@@ -16699,7 +16549,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.759725047594247</v>
+        <v>1.701740711169659</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.973303887155369</v>
@@ -16788,7 +16638,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.783677246797041</v>
+        <v>1.720108310134696</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.108507931763201</v>
@@ -16877,7 +16727,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.783304073042899</v>
+        <v>1.715112725234139</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.369560612865244</v>
@@ -16966,7 +16816,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.763660642707619</v>
+        <v>1.703777995588794</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.918971784986347</v>
@@ -17055,7 +16905,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.750955430960073</v>
+        <v>1.702650758976035</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.240075416269502</v>
@@ -17144,7 +16994,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.74562123302759</v>
+        <v>1.702375667342225</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.874521220891193</v>
@@ -17233,7 +17083,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.735074399014709</v>
+        <v>1.694910044186134</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.238935882152496</v>
@@ -17322,7 +17172,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.714721257146445</v>
+        <v>1.681515495617305</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.508966677129742</v>
@@ -17411,7 +17261,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70682448873357</v>
+        <v>1.668824367192722</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.546968342593005</v>
@@ -17500,7 +17350,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.709244459128805</v>
+        <v>1.66784756737567</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.645385808383633</v>
@@ -17589,7 +17439,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.705261572123677</v>
+        <v>1.67340566950865</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.208706702372689</v>
@@ -17678,7 +17528,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.701528492308498</v>
+        <v>1.675383514178169</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.421278341897438</v>
@@ -17767,7 +17617,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.702810613511729</v>
+        <v>1.673238067219815</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.364688292130286</v>
@@ -17856,7 +17706,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.704757437635042</v>
+        <v>1.681078917841262</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.270399754979478</v>
@@ -17945,7 +17795,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.695549466816562</v>
+        <v>1.678153364783603</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.669628516601979</v>
@@ -18034,7 +17884,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.685227170994066</v>
+        <v>1.668137045635258</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.262434201840781</v>
@@ -18123,7 +17973,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.680044043445654</v>
+        <v>1.659012025191061</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.36640538493625</v>
@@ -18212,7 +18062,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.687022466223004</v>
+        <v>1.663786320263833</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.034057938780521</v>
@@ -18301,7 +18151,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686356448475051</v>
+        <v>1.658814698451729</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.618620999266013</v>
@@ -18390,7 +18240,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.694535640645062</v>
+        <v>1.658759874786805</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.56163050963861</v>
@@ -18479,7 +18329,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.700683254937827</v>
+        <v>1.655474586682489</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.601867660446592</v>
@@ -18568,7 +18418,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.715768259924846</v>
+        <v>1.661618605091027</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.494809863822595</v>
@@ -18657,7 +18507,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.670904491235639</v>
+        <v>1.630828607158055</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.455367155562061</v>
@@ -18746,7 +18596,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.678556194982691</v>
+        <v>1.642192259023324</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.426732868909696</v>
@@ -18835,7 +18685,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.673621743856624</v>
+        <v>1.636528831182374</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.372272489632357</v>
@@ -18924,7 +18774,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671520946148539</v>
+        <v>1.630889589308282</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.383975337136891</v>
@@ -19013,7 +18863,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.657492496435629</v>
+        <v>1.621792525323332</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.457669654749748</v>
@@ -19102,7 +18952,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.659399484176765</v>
+        <v>1.624883511424126</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.453993465079359</v>
@@ -19191,7 +19041,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.644907281927345</v>
+        <v>1.611111550292867</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.412530875726407</v>
@@ -19280,7 +19130,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644369163809833</v>
+        <v>1.607122842635011</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.384366863689518</v>
@@ -19369,7 +19219,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.647347948508816</v>
+        <v>1.612929242514153</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.409400583699201</v>
@@ -19458,7 +19308,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.650786859756194</v>
+        <v>1.619725167191176</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.382236969933837</v>
@@ -19547,7 +19397,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.638311865707232</v>
+        <v>1.597497505201068</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.457156669327926</v>
@@ -19636,7 +19486,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637625571324054</v>
+        <v>1.598499614165487</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.388147866212564</v>
@@ -19725,7 +19575,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.641053363746458</v>
+        <v>1.593518036150902</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.435899662465634</v>
@@ -19814,7 +19664,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.628183691142402</v>
+        <v>1.584362185915249</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.478444499864563</v>
@@ -19903,7 +19753,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624548300049534</v>
+        <v>1.585568124077967</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.446005151387602</v>
@@ -19992,7 +19842,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.668695344925584</v>
+        <v>1.615583199146109</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.451457261633792</v>
@@ -20081,7 +19931,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.672813107793371</v>
+        <v>1.618981784997667</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.981978707712878</v>
@@ -20170,7 +20020,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.682129681847916</v>
+        <v>1.631413593138936</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.701215065752963</v>
@@ -20259,7 +20109,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.683597092222034</v>
+        <v>1.633879577472627</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.627662567490453</v>
@@ -20348,7 +20198,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.694064691347629</v>
+        <v>1.641283217592921</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.412990101522454</v>
@@ -20437,7 +20287,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689131043022222</v>
+        <v>1.636937203245243</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.62402996223319</v>
@@ -20526,7 +20376,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.709204906096058</v>
+        <v>1.657891706681066</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.010391939892303</v>
@@ -20615,7 +20465,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721213728725756</v>
+        <v>1.667975685866629</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.222746065127614</v>
@@ -20704,7 +20554,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.743664348580961</v>
+        <v>1.682811603168225</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.829894943601064</v>
@@ -20793,7 +20643,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.743350552289876</v>
+        <v>1.686119479377935</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.663108245824724</v>
@@ -20882,7 +20732,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.763917299943837</v>
+        <v>1.715703972427992</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.737327305153009</v>
@@ -20971,7 +20821,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.770120298524896</v>
+        <v>1.722294970993876</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.689524484339516</v>
@@ -21060,7 +20910,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.781591420334686</v>
+        <v>1.743276775502345</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.998703907383152</v>
@@ -21149,7 +20999,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.811783650969713</v>
+        <v>1.766863102511246</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.95451701463724</v>
@@ -21238,7 +21088,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.798513457209957</v>
+        <v>1.761572977897339</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.429025775902787</v>
@@ -21327,7 +21177,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.802806687268324</v>
+        <v>1.765409502767829</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.623535777496685</v>
@@ -21416,7 +21266,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.799558322628888</v>
+        <v>1.760942369019363</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.632913702388823</v>
@@ -21505,7 +21355,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.796211944164499</v>
+        <v>1.750410885773074</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.568668340061818</v>
@@ -21594,7 +21444,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.802534575361951</v>
+        <v>1.756126420158063</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.716717276790771</v>
@@ -21683,7 +21533,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.809528944597282</v>
+        <v>1.761883957281473</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.737189434695534</v>
@@ -21772,7 +21622,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.818738605998933</v>
+        <v>1.766969889000536</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.714725814241175</v>
@@ -21861,7 +21711,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.792691346094107</v>
+        <v>1.750361690747521</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.591237317744419</v>
@@ -21950,7 +21800,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.781317530959792</v>
+        <v>1.740605869517038</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.61833958777805</v>
@@ -22039,7 +21889,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.76634583684421</v>
+        <v>1.72226437216776</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.522134837751767</v>
@@ -22128,7 +21978,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.762872147105319</v>
+        <v>1.718613463158469</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.64862021637463</v>
@@ -22217,7 +22067,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.743797494917335</v>
+        <v>1.697791303430808</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.440690237025175</v>
@@ -22306,7 +22156,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.736844765620084</v>
+        <v>1.696423847887263</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.528019643388597</v>
@@ -22395,7 +22245,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.73191181518849</v>
+        <v>1.695782220861691</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.295184891216754</v>
@@ -22484,7 +22334,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.730483885348324</v>
+        <v>1.695068923744448</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.148869708111076</v>
@@ -22573,7 +22423,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.734652804386193</v>
+        <v>1.698965420351063</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.545439828345958</v>
@@ -22859,7 +22709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.718941700168974</v>
+        <v>1.661511284753265</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.664640477495812</v>
@@ -22948,7 +22798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.724384217154252</v>
+        <v>1.663405089462927</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.207955439971235</v>
@@ -23037,7 +22887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.730810555240877</v>
+        <v>1.671207167915055</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.035311349960772</v>
@@ -23126,7 +22976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.736751053865124</v>
+        <v>1.67601518706234</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.094860326480756</v>
@@ -23215,7 +23065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.708064323422327</v>
+        <v>1.657973717532523</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.744510291552555</v>
@@ -23304,7 +23154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.703736379848943</v>
+        <v>1.658502350089494</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.124011903888095</v>
@@ -23393,7 +23243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.698757498897073</v>
+        <v>1.661697434059552</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.326241044508323</v>
@@ -23482,7 +23332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.690924641527509</v>
+        <v>1.659293711079973</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.305553028018965</v>
@@ -23571,7 +23421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.673981387195394</v>
+        <v>1.640149252277312</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.322367307289822</v>
@@ -23660,7 +23510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.665577573476864</v>
+        <v>1.626993948770445</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.336530059353013</v>
@@ -23749,7 +23599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.658397398213502</v>
+        <v>1.62168108806927</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.406031904991593</v>
@@ -23838,7 +23688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.655704026463715</v>
+        <v>1.621325547824719</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.099478027154888</v>
@@ -23927,7 +23777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.644775768025866</v>
+        <v>1.613704672411336</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.38573666056186</v>
@@ -24016,7 +23866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.643295432023556</v>
+        <v>1.613123070486335</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.169807391655485</v>
@@ -24105,7 +23955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.639356322953607</v>
+        <v>1.610831424202173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.114791513177826</v>
@@ -24194,7 +24044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.622003296098888</v>
+        <v>1.598731468655727</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.001500491268549</v>
@@ -24283,7 +24133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.621304647117046</v>
+        <v>1.600239394928914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.095023736732678</v>
@@ -24372,7 +24222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.625180563396102</v>
+        <v>1.601925275859931</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.337187671832505</v>
@@ -24461,7 +24311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.624836675898099</v>
+        <v>1.600093323392982</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.922935139481899</v>
@@ -24550,7 +24400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.631018440951071</v>
+        <v>1.60493313582537</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.514259705472575</v>
@@ -24639,7 +24489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.631170953498376</v>
+        <v>1.60524197178145</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.446261685888131</v>
@@ -24728,7 +24578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.591973248093621</v>
+        <v>1.570473335375432</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.303803770704027</v>
@@ -24817,7 +24667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602515263377172</v>
+        <v>1.574418571639397</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.367898070430706</v>
@@ -24906,7 +24756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567857367987643</v>
+        <v>1.551891150531185</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.324408633674504</v>
@@ -24995,7 +24845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564206128073774</v>
+        <v>1.550380434813509</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.34385405849442</v>
@@ -25084,7 +24934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563549683465976</v>
+        <v>1.548047039328528</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.348228700679652</v>
@@ -25173,7 +25023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557175739562619</v>
+        <v>1.539217651502065</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.343814029613466</v>
@@ -25262,7 +25112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.550731374211962</v>
+        <v>1.533797650975492</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.318778548562666</v>
@@ -25351,7 +25201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.549160792399069</v>
+        <v>1.5320343341059</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.361682279386875</v>
@@ -25440,7 +25290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.551706906040295</v>
+        <v>1.526371672486426</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.366387756319191</v>
@@ -25529,7 +25379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.556805286766434</v>
+        <v>1.524393864823135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.297379090712617</v>
@@ -25618,7 +25468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557132486363336</v>
+        <v>1.520694235958895</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.332675860073061</v>
@@ -25707,7 +25557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.562386499522135</v>
+        <v>1.527434157118478</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.311414824057685</v>
@@ -25796,7 +25646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555709028345351</v>
+        <v>1.509846068629398</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.317428401390029</v>
@@ -25885,7 +25735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.553471027456869</v>
+        <v>1.502862760548294</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.378213694151865</v>
@@ -25974,7 +25824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.565353570722898</v>
+        <v>1.508836625341832</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.291978865093486</v>
@@ -26063,7 +25913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591636505197525</v>
+        <v>1.527681252677138</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.36602781859555</v>
@@ -26152,7 +26002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.585028463190967</v>
+        <v>1.525050359725238</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.342545834542159</v>
@@ -26241,7 +26091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625585212519206</v>
+        <v>1.549028442175368</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.645989541575263</v>
@@ -26330,7 +26180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628938172581224</v>
+        <v>1.550066384976467</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.134882850160343</v>
@@ -26419,7 +26269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.629578590880491</v>
+        <v>1.549152857410542</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.433859388913691</v>
@@ -26508,7 +26358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.642649288380977</v>
+        <v>1.560546281219934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.671234837531065</v>
@@ -26597,7 +26447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.645349083006396</v>
+        <v>1.559788302012674</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.376281316487231</v>
@@ -26686,7 +26536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635174906276501</v>
+        <v>1.550493524388127</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.306708957836026</v>
@@ -26775,7 +26625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.633492689061853</v>
+        <v>1.560056043116251</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.11131283469781</v>
@@ -26864,7 +26714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.642757088527291</v>
+        <v>1.570146906404967</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.242276766177641</v>
@@ -26953,7 +26803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647642565552091</v>
+        <v>1.576971815258315</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.324641246235937</v>
@@ -27042,7 +26892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639571141343946</v>
+        <v>1.569887968454164</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.055254679243244</v>
@@ -27131,7 +26981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.651602566046154</v>
+        <v>1.590394061834842</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.234301951633562</v>
@@ -27220,7 +27070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.647962382464873</v>
+        <v>1.593868411655224</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.335211017299916</v>
@@ -27309,7 +27159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.644537955443484</v>
+        <v>1.591614141599848</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.067098001272091</v>
@@ -27398,7 +27248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.661114930055195</v>
+        <v>1.608358337952248</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.770110342516395</v>
@@ -27487,7 +27337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.662409681438061</v>
+        <v>1.612468820003325</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.263034600204965</v>
@@ -27576,7 +27426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.662769012357374</v>
+        <v>1.618112179920881</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.266729519312348</v>
@@ -27665,7 +27515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.670779401206687</v>
+        <v>1.630969532053612</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.065864579320662</v>
@@ -27754,7 +27604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.67519506432622</v>
+        <v>1.635939430252112</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.274848042173363</v>
@@ -27843,7 +27693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.669631714444237</v>
+        <v>1.631178057252376</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.006994505496908</v>
@@ -27932,7 +27782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.678410601430159</v>
+        <v>1.64066558266477</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.422201228799435</v>
@@ -28021,7 +27871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.699839699934564</v>
+        <v>1.655692053321506</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.550521011054442</v>
@@ -28110,7 +27960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.697111239120845</v>
+        <v>1.659228546793669</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.487744569054694</v>
@@ -28199,7 +28049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.695942808702064</v>
+        <v>1.65584723882895</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.366011436576629</v>
@@ -28288,7 +28138,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.691843043878422</v>
+        <v>1.648536374944267</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.671250224664057</v>
@@ -28377,7 +28227,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.691488684584641</v>
+        <v>1.647610700029271</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.405451059011173</v>
@@ -28466,7 +28316,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.680997101176067</v>
+        <v>1.644646665884915</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.466433708188531</v>
@@ -28555,7 +28405,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.685677894534423</v>
+        <v>1.649663430231459</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.577563634571673</v>
@@ -28644,7 +28494,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.6966560743954</v>
+        <v>1.65964359844083</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.202001408430745</v>
@@ -28733,7 +28583,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.692286736068173</v>
+        <v>1.654656327124753</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.531704814421621</v>
@@ -28822,7 +28672,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.689848460145146</v>
+        <v>1.653773110992643</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.36674170519917</v>
@@ -29108,7 +28958,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.655784154193105</v>
+        <v>1.588255835487776</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.022207376268661</v>
@@ -29197,7 +29047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.652372889101651</v>
+        <v>1.585220420605552</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.908843275743863</v>
@@ -29286,7 +29136,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.660703420479266</v>
+        <v>1.594214953006797</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.94237258809531</v>
@@ -29375,7 +29225,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.669938570941862</v>
+        <v>1.596630781806589</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.897311779750772</v>
@@ -29464,7 +29314,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.634609671216026</v>
+        <v>1.572569299018072</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.465720035510753</v>
@@ -29553,7 +29403,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.620300333525276</v>
+        <v>1.556611757698582</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.813307797684061</v>
@@ -29642,7 +29492,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.609528796031953</v>
+        <v>1.548822287879436</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.848456710237431</v>
@@ -29731,7 +29581,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.595712034979049</v>
+        <v>1.536414236133422</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.98761802078398</v>
@@ -29820,7 +29670,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.577390139864512</v>
+        <v>1.522415563139281</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.842923623936915</v>
@@ -29909,7 +29759,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.561604368829574</v>
+        <v>1.505777494713196</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.942964638476313</v>
@@ -29998,7 +29848,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.556115901801117</v>
+        <v>1.500369401458856</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.951012887746819</v>
@@ -30087,7 +29937,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.55133286224081</v>
+        <v>1.495753133626774</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.919712216663084</v>
@@ -30176,7 +30026,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544387158919446</v>
+        <v>1.491708853585906</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.063348179733555</v>
@@ -30265,7 +30115,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.55385782192715</v>
+        <v>1.495161279487704</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.028794626056105</v>
@@ -30354,7 +30204,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.559908788725749</v>
+        <v>1.500374570801124</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.802539718392678</v>
@@ -30443,7 +30293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.543497127159043</v>
+        <v>1.49170416896667</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.018791601820793</v>
@@ -30532,7 +30382,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.53798058569733</v>
+        <v>1.489799523164337</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.930693089310787</v>
@@ -30621,7 +30471,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.535027589336042</v>
+        <v>1.478954637113733</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.998032798580725</v>
@@ -30710,7 +30560,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.537657439536257</v>
+        <v>1.482881090171971</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.546540906310024</v>
@@ -30799,7 +30649,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.546616314864318</v>
+        <v>1.488482844467071</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.183209025331123</v>
@@ -30888,7 +30738,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.55330540945544</v>
+        <v>1.49402754107996</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.963471256347705</v>
@@ -30977,7 +30827,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.559370046632805</v>
+        <v>1.495331142462201</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.123429280276471</v>
@@ -31066,7 +30916,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574215325749379</v>
+        <v>1.50395634858007</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.797239816745121</v>
@@ -31155,7 +31005,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57581457867562</v>
+        <v>1.509435900972943</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.031803947942531</v>
@@ -31244,7 +31094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.593179836518312</v>
+        <v>1.523485086917307</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.973379347444359</v>
@@ -31333,7 +31183,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59078160160796</v>
+        <v>1.521549752530078</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.924198172348737</v>
@@ -31422,7 +31272,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.587500249378269</v>
+        <v>1.520182172409693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.83996638751124</v>
@@ -31511,7 +31361,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.571643066226819</v>
+        <v>1.512034153653514</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.960550840703598</v>
@@ -31600,7 +31450,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563598970833971</v>
+        <v>1.504403275079441</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.977389947741127</v>
@@ -31689,7 +31539,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.555808853258037</v>
+        <v>1.495839547674215</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.077956175620936</v>
@@ -31778,7 +31628,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.557371764514565</v>
+        <v>1.490136883795166</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.271607336766325</v>
@@ -31867,7 +31717,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.560413634928328</v>
+        <v>1.49082610421921</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.325766352195259</v>
@@ -31956,7 +31806,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.563692529489505</v>
+        <v>1.501756644901963</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.933615454270948</v>
@@ -32045,7 +31895,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57025416786154</v>
+        <v>1.48738970957899</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.154262941729547</v>
@@ -32134,7 +31984,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.574718596514303</v>
+        <v>1.488950518956322</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.977668624260331</v>
@@ -32223,7 +32073,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.582295723541295</v>
+        <v>1.489299515681493</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.467254858395629</v>
@@ -32312,7 +32162,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.571115057029052</v>
+        <v>1.479142586011303</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.487264037489279</v>
@@ -32401,7 +32251,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.570534296976309</v>
+        <v>1.486036028672777</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.293300704052114</v>
@@ -32490,7 +32340,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.571047534500457</v>
+        <v>1.481843691569123</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.584107424730629</v>
@@ -32579,7 +32429,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.576788542440399</v>
+        <v>1.482566716643459</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.93156302190946</v>
@@ -32668,7 +32518,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.584904330066222</v>
+        <v>1.487755252984573</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.423132103543893</v>
@@ -32757,7 +32607,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589672681677007</v>
+        <v>1.49195920700376</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.463825987659833</v>
@@ -32846,7 +32696,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.596504546358795</v>
+        <v>1.49534470576191</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.305801796712573</v>
@@ -32935,7 +32785,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.592900639618989</v>
+        <v>1.493156457117691</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.020863091303292</v>
@@ -33024,7 +32874,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600574378094405</v>
+        <v>1.503658175845658</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.091993727574273</v>
@@ -33113,7 +32963,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609871482769857</v>
+        <v>1.513099574926823</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.230227760511567</v>
@@ -33202,7 +33052,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.613698651249205</v>
+        <v>1.515971236151705</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.020305127625825</v>
@@ -33291,7 +33141,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.616890160051162</v>
+        <v>1.519210985721975</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.974124112872289</v>
@@ -33380,7 +33230,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.622264114315658</v>
+        <v>1.541113257188926</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.019620157004742</v>
@@ -33469,7 +33319,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617401147710787</v>
+        <v>1.546869176284279</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.072073298548139</v>
@@ -33558,7 +33408,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.619274206380435</v>
+        <v>1.556901541892679</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.683137684825553</v>
@@ -33647,7 +33497,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.641702724762457</v>
+        <v>1.575824493065552</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.651384295307372</v>
@@ -33736,7 +33586,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.620738592752656</v>
+        <v>1.556372690295343</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.995239750217023</v>
@@ -33825,7 +33675,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.617634716541571</v>
+        <v>1.554313143408872</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.075354710221957</v>
@@ -33914,7 +33764,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.616511746327001</v>
+        <v>1.565564200733962</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.051230480717847</v>
@@ -34003,7 +33853,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.621619679763395</v>
+        <v>1.563912242612499</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.056763032835252</v>
@@ -34092,7 +33942,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.625255780396654</v>
+        <v>1.563673013381434</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.841722301866922</v>
@@ -34181,7 +34031,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.64259288463002</v>
+        <v>1.568200887026362</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.266854120794734</v>
@@ -34270,7 +34120,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.658933563977147</v>
+        <v>1.585299495278333</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.424558613322892</v>
@@ -34359,7 +34209,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652130143048951</v>
+        <v>1.578252943223151</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.408576112268232</v>
@@ -34448,7 +34298,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.635108481465323</v>
+        <v>1.561697463377962</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.411524801920523</v>
@@ -34537,7 +34387,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.625233408057492</v>
+        <v>1.550347925603891</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.260343373710207</v>
@@ -34626,7 +34476,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.62335246590309</v>
+        <v>1.545315561300009</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.387281900463158</v>
@@ -34715,7 +34565,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.598548477786713</v>
+        <v>1.527522549098369</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.023001212619752</v>
@@ -34804,7 +34654,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.608647286746609</v>
+        <v>1.537615523728771</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.179002270499778</v>
@@ -34893,7 +34743,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.615127663106612</v>
+        <v>1.546897520482525</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.94417089407761</v>
@@ -34982,7 +34832,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.62740098091449</v>
+        <v>1.55181027813787</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.635242175508763</v>
@@ -35071,7 +34921,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.63608423385171</v>
+        <v>1.56034216118604</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.315098150495167</v>
@@ -35357,7 +35207,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.709061454823782</v>
+        <v>1.698681022951887</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.330764220631938</v>
@@ -35446,7 +35296,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.731443045193651</v>
+        <v>1.721371808288283</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.037547126959931</v>
@@ -35535,7 +35385,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.763516780044998</v>
+        <v>1.743831383299376</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.857897682986417</v>
@@ -35624,7 +35474,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770036506643565</v>
+        <v>1.74766741514296</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.629413197760179</v>
@@ -35713,7 +35563,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.74851908894</v>
+        <v>1.734407922645752</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.345457807403259</v>
@@ -35802,7 +35652,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.738169590130017</v>
+        <v>1.730008590964156</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.76475158619304</v>
@@ -35891,7 +35741,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.738126188197965</v>
+        <v>1.736507244791734</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.480476515113823</v>
@@ -35980,7 +35830,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.737299520857432</v>
+        <v>1.735135800791884</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.295524223734167</v>
@@ -36069,7 +35919,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.725837605749718</v>
+        <v>1.725389669817964</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.463772444319113</v>
@@ -36158,7 +36008,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73210823962132</v>
+        <v>1.724609688273515</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.289082665970713</v>
@@ -36247,7 +36097,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.736840603977613</v>
+        <v>1.724400916128206</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.509427211021324</v>
@@ -36336,7 +36186,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.721313632064225</v>
+        <v>1.713862878076323</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.740558074773157</v>
@@ -36425,7 +36275,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727534317476208</v>
+        <v>1.718216860462474</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.292966772577621</v>
@@ -36514,7 +36364,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.72552944125986</v>
+        <v>1.717903587337407</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.786883517616657</v>
@@ -36603,7 +36453,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.728183784166868</v>
+        <v>1.722021169941063</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.481768381949141</v>
@@ -36692,7 +36542,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.698216337342671</v>
+        <v>1.687839318186516</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.49575326178628</v>
@@ -36781,7 +36631,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.673190123578525</v>
+        <v>1.669194023507793</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.575393248775916</v>
@@ -36870,7 +36720,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.670136827555691</v>
+        <v>1.666712969488956</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.593794027082893</v>
@@ -36959,7 +36809,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.666391411527517</v>
+        <v>1.663161588464843</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.389865853967573</v>
@@ -37048,7 +36898,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.602841623759407</v>
+        <v>1.595496032136136</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.85859474065517</v>
@@ -37137,7 +36987,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.59669008827528</v>
+        <v>1.573514554864887</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.89972063377886</v>
@@ -37226,7 +37076,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.597202994645119</v>
+        <v>1.563526503177764</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.777078473924944</v>
@@ -37315,7 +37165,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.589299979769691</v>
+        <v>1.547757194536729</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.707229288024106</v>
@@ -37404,7 +37254,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.406173859623202</v>
+        <v>1.383598797619867</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.575510971533615</v>
@@ -37493,7 +37343,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.384843048779027</v>
+        <v>1.365486966714545</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.575322171445614</v>
@@ -37582,7 +37432,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.3818242891337</v>
+        <v>1.36265042765802</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.573161746895087</v>
@@ -37671,7 +37521,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.382088334031002</v>
+        <v>1.360732486152516</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.573490470641199</v>
@@ -37760,7 +37610,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.377330490193896</v>
+        <v>1.356241559619489</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.572035703103385</v>
@@ -37849,7 +37699,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.376288915336844</v>
+        <v>1.35464608693176</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.568577054708563</v>
@@ -37938,7 +37788,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.375299515000245</v>
+        <v>1.352384443709767</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.572551995299796</v>
@@ -38027,7 +37877,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.379245270693609</v>
+        <v>1.358291019735204</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.566615328940546</v>
@@ -38116,7 +37966,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.376261476724429</v>
+        <v>1.355831681859503</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.566163889981534</v>
@@ -38205,7 +38055,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.379818522229058</v>
+        <v>1.361494490957031</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.561834238795682</v>
@@ -38294,7 +38144,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.382893813867211</v>
+        <v>1.359165215038356</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.567193167742086</v>
@@ -38383,7 +38233,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.397264998962896</v>
+        <v>1.372479482306784</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.552441442759055</v>
@@ -38472,7 +38322,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.389385782386518</v>
+        <v>1.367141332064729</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.539442646242722</v>
@@ -38561,7 +38411,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.374846461887853</v>
+        <v>1.35453425017611</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.51955685832876</v>
@@ -38650,7 +38500,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.366719436500851</v>
+        <v>1.350707290570351</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.476337244632915</v>
@@ -38739,7 +38589,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.631632080713472</v>
+        <v>1.587343238030166</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.271760096409168</v>
@@ -38828,7 +38678,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681201855479174</v>
+        <v>1.626125341340053</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.040429582421122</v>
@@ -38917,7 +38767,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.692132008429315</v>
+        <v>1.634229882433982</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.329899223759226</v>
@@ -39006,7 +38856,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.705261016435567</v>
+        <v>1.647594971951725</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.269991251929312</v>
@@ -39095,7 +38945,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.712383481902726</v>
+        <v>1.651952417824678</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.498745311797233</v>
@@ -39184,7 +39034,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.69930353721301</v>
+        <v>1.639769861989528</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.267709457195463</v>
@@ -39273,7 +39123,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.712356657380974</v>
+        <v>1.657990068606145</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.305961948141768</v>
@@ -39362,7 +39212,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.730577196776885</v>
+        <v>1.668516689545986</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.984848378422082</v>
@@ -39451,7 +39301,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.755464739242037</v>
+        <v>1.680871659601742</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.148123222066362</v>
@@ -39540,7 +39390,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.752678448187768</v>
+        <v>1.678626027500626</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.084334407317703</v>
@@ -39629,7 +39479,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.762919618871214</v>
+        <v>1.701584562261092</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.899863932475575</v>
@@ -39718,7 +39568,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.766211351291699</v>
+        <v>1.712047649751693</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.300773915975654</v>
@@ -39807,7 +39657,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.764457750381796</v>
+        <v>1.717560735354976</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.384621614605203</v>
@@ -39896,7 +39746,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.782878761738963</v>
+        <v>1.738151620111476</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.923751842566496</v>
@@ -39985,7 +39835,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.762875919695899</v>
+        <v>1.727877840232018</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.01336295645136</v>
@@ -40074,7 +39924,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.7649682976926</v>
+        <v>1.730475463816008</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.923373247090301</v>
@@ -40163,7 +40013,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.769734700693471</v>
+        <v>1.738912553265271</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.847594234423092</v>
@@ -40252,7 +40102,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.767908424214358</v>
+        <v>1.734259051652754</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.114352794147593</v>
@@ -40341,7 +40191,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.765161438565445</v>
+        <v>1.729139840401144</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.896235759373181</v>
@@ -40430,7 +40280,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.774942505009596</v>
+        <v>1.736740092414812</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.870147627468262</v>
@@ -40519,7 +40369,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.782668223557644</v>
+        <v>1.748967167623753</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.467198279821006</v>
@@ -40608,7 +40458,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.763428238379445</v>
+        <v>1.726707626977686</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.272411885286034</v>
@@ -40697,7 +40547,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.752739844186548</v>
+        <v>1.728823204262624</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.169587845048343</v>
@@ -40786,7 +40636,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.741807120778157</v>
+        <v>1.717277673106335</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.514779786897444</v>
@@ -40875,7 +40725,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.727756227605999</v>
+        <v>1.702549014507732</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.666813700487452</v>
@@ -40964,7 +40814,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.717204135452407</v>
+        <v>1.694400695773213</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.189254824383479</v>
@@ -41053,7 +40903,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.716539325081053</v>
+        <v>1.698655647515349</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.71202050702098</v>
@@ -41142,7 +40992,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.727086449156003</v>
+        <v>1.70924541193682</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.702158324461382</v>
@@ -41231,7 +41081,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.730480322008936</v>
+        <v>1.706234238335973</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.996509679256222</v>
@@ -41320,7 +41170,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.737510472272385</v>
+        <v>1.715100011812442</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.545049854388281</v>
